--- a/nodes_source_analyses/energy/industry/industry_other_food_flexibility_p2h_network_gas_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_other_food_flexibility_p2h_network_gas_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD01ECD8-B60B-FF40-90ED-5311E777AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE49D958-9C7F-F448-B024-D31EA1EF6616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -62,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="152">
   <si>
     <t>Source</t>
   </si>
@@ -614,6 +617,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1694,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1931,10 +1940,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2004,6 +2009,11 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="484">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3250,12 +3260,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="20"/>
+    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
@@ -3427,60 +3437,60 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="32" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="32" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="32" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="32"/>
+    <col min="1" max="2" width="3.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="51.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="32" customWidth="1"/>
+    <col min="7" max="7" width="37.83203125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="32" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="199" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="201"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="206"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="209"/>
-      <c r="C5" s="210"/>
-      <c r="D5" s="210"/>
-      <c r="E5" s="211"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
@@ -3581,7 +3591,7 @@
       <c r="D13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="184">
+      <c r="E13" s="180">
         <f>'Research data'!H8</f>
         <v>0.995</v>
       </c>
@@ -3605,7 +3615,7 @@
       <c r="D14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="183">
+      <c r="E14" s="179">
         <f>'Research data'!H9</f>
         <v>50.251256281407038</v>
       </c>
@@ -3679,81 +3689,81 @@
       </c>
       <c r="J17" s="166"/>
     </row>
-    <row r="18" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B18" s="198"/>
+    <row r="18" spans="1:10" s="193" customFormat="1" ht="17" thickBot="1">
+      <c r="B18" s="194"/>
       <c r="C18" s="156" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="21"/>
-      <c r="E18" s="199">
+      <c r="E18" s="195">
         <f>'Research data'!H15</f>
         <v>50</v>
       </c>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201" t="str">
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="197" t="str">
         <f>'Research data'!N15</f>
         <v>This simulates instantaneous use</v>
       </c>
-      <c r="J18" s="202"/>
-    </row>
-    <row r="19" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B19" s="198"/>
+      <c r="J18" s="198"/>
+    </row>
+    <row r="19" spans="1:10" s="193" customFormat="1" ht="17" thickBot="1">
+      <c r="B19" s="194"/>
       <c r="C19" s="156" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="21"/>
-      <c r="E19" s="199">
+      <c r="E19" s="195">
         <f>'Research data'!H16</f>
         <v>0</v>
       </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201" t="str">
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197" t="str">
         <f>'Research data'!N16</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J19" s="202"/>
-    </row>
-    <row r="20" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B20" s="198"/>
+      <c r="J19" s="198"/>
+    </row>
+    <row r="20" spans="1:10" s="193" customFormat="1" ht="17" thickBot="1">
+      <c r="B20" s="194"/>
       <c r="C20" s="156" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="21"/>
-      <c r="E20" s="199">
+      <c r="E20" s="195">
         <f>'Research data'!H17</f>
         <v>0</v>
       </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201" t="str">
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="197" t="str">
         <f>'Research data'!N17</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J20" s="202"/>
-    </row>
-    <row r="21" spans="1:10" s="197" customFormat="1" ht="17" thickBot="1">
-      <c r="B21" s="198"/>
+      <c r="J20" s="198"/>
+    </row>
+    <row r="21" spans="1:10" s="193" customFormat="1" ht="17" thickBot="1">
+      <c r="B21" s="194"/>
       <c r="C21" s="156" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="199">
+      <c r="E21" s="195">
         <f>'Research data'!H18</f>
         <v>0</v>
       </c>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201" t="str">
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="197" t="str">
         <f>'Research data'!N18</f>
         <v>Quintel assumption</v>
       </c>
-      <c r="J21" s="202"/>
+      <c r="J21" s="198"/>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="152"/>
@@ -3967,28 +3977,34 @@
       </c>
       <c r="J32" s="166"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="17" thickBot="1">
       <c r="A33" s="96"/>
       <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="169"/>
+      <c r="C33" s="208" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="168">
+        <v>22</v>
+      </c>
       <c r="F33" s="94"/>
       <c r="G33" s="94"/>
       <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
+      <c r="I33" s="212" t="s">
+        <v>120</v>
+      </c>
       <c r="J33" s="166"/>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="96"/>
       <c r="B34" s="151"/>
-      <c r="C34" s="162" t="s">
-        <v>5</v>
-      </c>
+      <c r="C34" s="151"/>
       <c r="D34" s="21"/>
       <c r="E34" s="169"/>
       <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="94"/>
       <c r="I34" s="94"/>
       <c r="J34" s="166"/>
@@ -3996,95 +4012,91 @@
     <row r="35" spans="1:10" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="151"/>
-      <c r="C35" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="168">
-        <f>'Research data'!H34</f>
-        <v>15</v>
-      </c>
+      <c r="C35" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="94"/>
-      <c r="G35" s="94" t="s">
-        <v>70</v>
-      </c>
+      <c r="G35" s="34"/>
       <c r="H35" s="94"/>
-      <c r="I35" s="171" t="s">
-        <v>100</v>
-      </c>
+      <c r="I35" s="94"/>
       <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="151"/>
       <c r="C36" s="151" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="168">
-        <f>'Research data'!H35</f>
-        <v>0</v>
+        <f>'Research data'!H34</f>
+        <v>15</v>
       </c>
       <c r="F36" s="94"/>
       <c r="G36" s="94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H36" s="94"/>
-      <c r="I36" s="176"/>
+      <c r="I36" s="171" t="s">
+        <v>100</v>
+      </c>
       <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="151"/>
       <c r="C37" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="168">
+        <f>'Research data'!H35</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="94"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="166"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D38" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="177">
+      <c r="E38" s="177">
         <f>'Research data'!H36</f>
         <v>0</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94" t="s">
+      <c r="F38" s="94"/>
+      <c r="G38" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="166"/>
-    </row>
-    <row r="38" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="151" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="168">
-        <v>0</v>
-      </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
       <c r="H38" s="94"/>
-      <c r="I38" s="167" t="s">
-        <v>123</v>
-      </c>
+      <c r="I38" s="178"/>
       <c r="J38" s="166"/>
     </row>
     <row r="39" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
       <c r="A39" s="99"/>
       <c r="B39" s="151"/>
-      <c r="C39" s="156" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="21"/>
+      <c r="C39" s="151" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="E39" s="168">
         <v>0</v>
       </c>
@@ -4100,10 +4112,10 @@
       <c r="A40" s="99"/>
       <c r="B40" s="151"/>
       <c r="C40" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="94"/>
-      <c r="E40" s="176">
+        <v>57</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="168">
         <v>0</v>
       </c>
       <c r="F40" s="94"/>
@@ -4114,82 +4126,57 @@
       </c>
       <c r="J40" s="166"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="151"/>
-      <c r="C41" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="94"/>
-      <c r="E41" s="176">
-        <v>0</v>
-      </c>
-      <c r="F41" s="94"/>
-      <c r="G41" s="94"/>
-      <c r="H41" s="94"/>
-      <c r="I41" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="166"/>
-    </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A42" s="99"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="156" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="94"/>
-      <c r="E42" s="176">
-        <v>0</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" s="166"/>
-    </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="94"/>
-      <c r="E43" s="176">
-        <v>0</v>
-      </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J43" s="166"/>
-    </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="17" thickBot="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="182"/>
-      <c r="C44" s="179" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="176">
-        <v>0</v>
-      </c>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="167" t="s">
-        <v>123</v>
-      </c>
-      <c r="J44" s="181"/>
+    <row r="41" spans="1:10" ht="17" thickBot="1">
+      <c r="A41" s="96"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="210"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="210"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="210"/>
+      <c r="I41" s="210"/>
+      <c r="J41" s="211"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="96"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="96"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="146"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="96"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
+      <c r="C45" s="145"/>
       <c r="D45" s="96"/>
       <c r="E45" s="96"/>
       <c r="F45" s="96"/>
@@ -4201,7 +4188,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="96"/>
       <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
+      <c r="C46" s="145"/>
       <c r="D46" s="96"/>
       <c r="E46" s="96"/>
       <c r="F46" s="96"/>
@@ -4225,7 +4212,8 @@
     <row r="48" spans="1:10">
       <c r="A48" s="96"/>
       <c r="B48" s="96"/>
-      <c r="C48" s="146"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="96"/>
       <c r="E48" s="96"/>
       <c r="F48" s="96"/>
       <c r="G48" s="96"/>
@@ -4233,90 +4221,54 @@
       <c r="I48" s="96"/>
       <c r="J48" s="96"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:3">
       <c r="A49" s="96"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="C49" s="146"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="96"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="96"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="96"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="96"/>
+      <c r="C50" s="146"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="146"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="146"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="C53" s="146"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="96"/>
+    <row r="54" spans="1:3">
       <c r="C54" s="146"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:3">
       <c r="C55" s="146"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:3">
       <c r="C56" s="146"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:3">
       <c r="C57" s="146"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:3">
       <c r="C58" s="146"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:3">
       <c r="C59" s="146"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:3">
       <c r="C60" s="146"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:3">
       <c r="C61" s="146"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:3">
       <c r="C62" s="146"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:3">
       <c r="C63" s="146"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:3">
       <c r="C64" s="146"/>
     </row>
     <row r="65" spans="3:3">
@@ -4375,18 +4327,6 @@
     </row>
     <row r="83" spans="3:3">
       <c r="C83" s="146"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="146"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="146"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="146"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4408,26 +4348,26 @@
       <selection activeCell="A43" sqref="A43:XFD46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
     <col min="2" max="2" width="3" style="35" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="35" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="35" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="35" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="35" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="35" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="35" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" style="35" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="35" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="35" customWidth="1"/>
     <col min="15" max="15" width="11" style="35" customWidth="1"/>
-    <col min="16" max="16" width="2.42578125" style="35" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" style="35" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="35"/>
+    <col min="16" max="16" width="2.5" style="35" customWidth="1"/>
+    <col min="17" max="17" width="22.5" style="35" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
@@ -4510,7 +4450,7 @@
     </row>
     <row r="7" spans="1:17" ht="17" thickBot="1">
       <c r="B7" s="38"/>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="192" t="s">
         <v>101</v>
       </c>
       <c r="D7" s="43"/>
@@ -4533,7 +4473,7 @@
     </row>
     <row r="8" spans="1:17" ht="17" thickBot="1">
       <c r="B8" s="38"/>
-      <c r="C8" s="196" t="s">
+      <c r="C8" s="192" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="43"/>
@@ -4692,7 +4632,7 @@
     <row r="15" spans="1:17" ht="17" thickBot="1">
       <c r="A15" s="96"/>
       <c r="B15" s="97"/>
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="191" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="12"/>
@@ -4718,7 +4658,7 @@
     <row r="16" spans="1:17" ht="17" thickBot="1">
       <c r="A16" s="96"/>
       <c r="B16" s="97"/>
-      <c r="C16" s="195" t="s">
+      <c r="C16" s="191" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="12"/>
@@ -4741,7 +4681,7 @@
     <row r="17" spans="1:15" ht="17" thickBot="1">
       <c r="A17" s="96"/>
       <c r="B17" s="97"/>
-      <c r="C17" s="195" t="s">
+      <c r="C17" s="191" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="12"/>
@@ -4764,7 +4704,7 @@
     <row r="18" spans="1:15" ht="17" thickBot="1">
       <c r="A18" s="96"/>
       <c r="B18" s="97"/>
-      <c r="C18" s="195" t="s">
+      <c r="C18" s="191" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="12"/>
@@ -4851,7 +4791,7 @@
     <row r="24" spans="1:15" ht="17" thickBot="1">
       <c r="A24" s="96"/>
       <c r="B24" s="97"/>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="189" t="s">
         <v>145</v>
       </c>
       <c r="D24" s="101"/>
@@ -4874,7 +4814,7 @@
     <row r="25" spans="1:15" ht="17" thickBot="1">
       <c r="A25" s="96"/>
       <c r="B25" s="97"/>
-      <c r="C25" s="194" t="s">
+      <c r="C25" s="190" t="s">
         <v>146</v>
       </c>
       <c r="F25" s="107" t="s">
@@ -4897,7 +4837,7 @@
     <row r="26" spans="1:15" ht="17" thickBot="1">
       <c r="A26" s="96"/>
       <c r="B26" s="97"/>
-      <c r="C26" s="194" t="s">
+      <c r="C26" s="190" t="s">
         <v>147</v>
       </c>
       <c r="F26" s="102" t="s">
@@ -4920,7 +4860,7 @@
     <row r="27" spans="1:15" ht="17" thickBot="1">
       <c r="A27" s="122"/>
       <c r="B27" s="123"/>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="181" t="s">
         <v>85</v>
       </c>
       <c r="D27" s="122"/>
@@ -4946,7 +4886,7 @@
     <row r="28" spans="1:15" ht="17" thickBot="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
-      <c r="C28" s="185" t="s">
+      <c r="C28" s="181" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="122"/>
@@ -4972,7 +4912,7 @@
     <row r="29" spans="1:15" ht="17" thickBot="1">
       <c r="A29" s="96"/>
       <c r="B29" s="97"/>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="181" t="s">
         <v>94</v>
       </c>
       <c r="F29" s="121" t="s">
@@ -4994,7 +4934,7 @@
     <row r="30" spans="1:15" ht="17" thickBot="1">
       <c r="A30" s="122"/>
       <c r="B30" s="123"/>
-      <c r="C30" s="186" t="s">
+      <c r="C30" s="182" t="s">
         <v>88</v>
       </c>
       <c r="D30" s="122"/>
@@ -5020,14 +4960,14 @@
     <row r="31" spans="1:15">
       <c r="A31" s="122"/>
       <c r="B31" s="123"/>
-      <c r="C31" s="187"/>
+      <c r="C31" s="183"/>
       <c r="H31" s="41"/>
       <c r="J31" s="41"/>
       <c r="N31" s="44"/>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="38"/>
-      <c r="C32" s="187"/>
+      <c r="C32" s="183"/>
       <c r="H32" s="41"/>
       <c r="J32" s="41"/>
       <c r="N32" s="93"/>
@@ -5050,7 +4990,7 @@
     <row r="34" spans="1:14" ht="17" thickBot="1">
       <c r="A34" s="96"/>
       <c r="B34" s="97"/>
-      <c r="C34" s="189" t="s">
+      <c r="C34" s="185" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="102" t="s">
@@ -5073,7 +5013,7 @@
     <row r="35" spans="1:14" ht="17" thickBot="1">
       <c r="A35" s="96"/>
       <c r="B35" s="97"/>
-      <c r="C35" s="190" t="s">
+      <c r="C35" s="186" t="s">
         <v>77</v>
       </c>
       <c r="F35" s="102" t="s">
@@ -5096,7 +5036,7 @@
     <row r="36" spans="1:14" ht="17" thickBot="1">
       <c r="A36" s="96"/>
       <c r="B36" s="97"/>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="187" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="102" t="s">
@@ -5119,7 +5059,7 @@
     <row r="37" spans="1:14" ht="17" thickBot="1">
       <c r="A37" s="96"/>
       <c r="B37" s="97"/>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="188" t="s">
         <v>21</v>
       </c>
       <c r="F37" s="12"/>
@@ -5138,7 +5078,7 @@
     <row r="38" spans="1:14" ht="17" thickBot="1">
       <c r="A38" s="96"/>
       <c r="B38" s="97"/>
-      <c r="C38" s="188" t="s">
+      <c r="C38" s="184" t="s">
         <v>71</v>
       </c>
       <c r="H38" s="106">
@@ -5156,7 +5096,7 @@
     <row r="39" spans="1:14" ht="17" thickBot="1">
       <c r="A39" s="96"/>
       <c r="B39" s="97"/>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="184" t="s">
         <v>72</v>
       </c>
       <c r="H39" s="106">
@@ -5174,7 +5114,7 @@
     <row r="40" spans="1:14" ht="17" thickBot="1">
       <c r="A40" s="96"/>
       <c r="B40" s="97"/>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="184" t="s">
         <v>73</v>
       </c>
       <c r="H40" s="106">
@@ -5192,7 +5132,7 @@
     <row r="41" spans="1:14" ht="17" thickBot="1">
       <c r="A41" s="96"/>
       <c r="B41" s="97"/>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="184" t="s">
         <v>74</v>
       </c>
       <c r="H41" s="106">
@@ -5210,7 +5150,7 @@
     <row r="42" spans="1:14" ht="17" thickBot="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="188" t="s">
+      <c r="C42" s="184" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="106">
@@ -5242,18 +5182,18 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="48"/>
+    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5567,18 +5507,18 @@
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="57" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="57" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="57" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="57" customWidth="1"/>
     <col min="4" max="4" width="4" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="57" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="57"/>
-    <col min="14" max="14" width="15.7109375" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="57"/>
-    <col min="16" max="16" width="54.7109375" style="57" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="57"/>
+    <col min="5" max="5" width="13.1640625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="57" customWidth="1"/>
+    <col min="7" max="13" width="10.6640625" style="57"/>
+    <col min="14" max="14" width="15.6640625" style="57" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="57"/>
+    <col min="16" max="16" width="54.6640625" style="57" customWidth="1"/>
+    <col min="17" max="16384" width="10.6640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1"/>
